--- a/medicine/Psychotrope/Jean-Baptiste_François/Jean-Baptiste_François.xlsx
+++ b/medicine/Psychotrope/Jean-Baptiste_François/Jean-Baptiste_François.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Fran%C3%A7ois</t>
+          <t>Jean-Baptiste_François</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste François, né le 6 février 1792 à Saint-Mihiel et mort le 16 septembre 1838 à Châlons-sur-Marne[1], est un pharmacien français du XIXe siècle à Châlons-en-Champagne, surtout connu pour ses inventions de « réduction François »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste François, né le 6 février 1792 à Saint-Mihiel et mort le 16 septembre 1838 à Châlons-sur-Marne, est un pharmacien français du XIXe siècle à Châlons-en-Champagne, surtout connu pour ses inventions de « réduction François ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Fran%C3%A7ois</t>
+          <t>Jean-Baptiste_François</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chimiste-pharmacien et membre de la Société d’agriculture de la Marne.
-La « réduction François »
-En 1831, il publie un document qui décrit une méthode de contrôle de la teneur en sucre avant la seconde fermentation du vin de champagne dans les bouteilles[3].
-Cela permet de déterminer exactement le dosage du mélange appelé liqueur de tirage à réaliser. Cette méthode est devenue connue sous le nom de « réduction François ». Jusqu'à cette date, 50 % et dans les cas extrêmes 80 % des bouteilles se brisaient à cause d'une pression excessive[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_François</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Fran%C3%A7ois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La « réduction François »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1831, il publie un document qui décrit une méthode de contrôle de la teneur en sucre avant la seconde fermentation du vin de champagne dans les bouteilles.
+Cela permet de déterminer exactement le dosage du mélange appelé liqueur de tirage à réaliser. Cette méthode est devenue connue sous le nom de « réduction François ». Jusqu'à cette date, 50 % et dans les cas extrêmes 80 % des bouteilles se brisaient à cause d'une pression excessive.
 </t>
         </is>
       </c>
